--- a/英语/学习计划-初版.xlsx
+++ b/英语/学习计划-初版.xlsx
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按首字母顺序背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结合b站视频“自考英语一单词 90分钟快速过完”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背3500单词+英语一新单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟悉词根词缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +172,14 @@
   </si>
   <si>
     <t>文章打印pdf：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇表3500单词+英语一新单词684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软件“墨墨背单词”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,47 +318,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -367,6 +337,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,15 +389,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>58615</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>139212</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>973015</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>139212</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -428,23 +425,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -730,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,16 +731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -783,249 +767,249 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44762</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44762</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="5">
+        <v>44763</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44763</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="5">
+        <v>44764</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44764</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="5">
+        <v>44765</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44765</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44766</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44766</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5">
+        <v>44767</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44767</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5">
+        <v>44768</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44768</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>44762</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44762</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6">
-        <v>44763</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44763</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6">
-        <v>44764</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44764</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6">
-        <v>44765</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44765</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
-        <v>44766</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44766</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6">
-        <v>44767</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44767</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6">
-        <v>44768</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44768</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14">
+        <v>44769</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44804</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16">
-        <v>44769</v>
-      </c>
-      <c r="F10" s="16">
-        <v>44804</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="14">
+        <v>44805</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44819</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="16">
-        <v>44805</v>
-      </c>
-      <c r="F15" s="16">
-        <v>44819</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1219,6 +1203,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="G10:G14"/>
@@ -1227,20 +1225,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,7 +1234,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025">
           <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1270,7 +1254,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1025"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
